--- a/Task 3/Task Description/excelsheet_data_modified.xlsx
+++ b/Task 3/Task Description/excelsheet_data_modified.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teaching\AER 408\Spring 2019\my codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Aerospace\AeroSpace 4\Term 2\AutoPilot (Dr. Osama Saaid)\Tasks\Task 3\Task Description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1216EE9F-4CAF-4961-B47F-ED58FB4654B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -450,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -697,8 +696,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="عادي" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1200,11 +1199,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,7 +1252,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>8</v>
